--- a/IrisData/ab20_train_100.xlsx
+++ b/IrisData/ab20_train_100.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\QONN量子模拟\qonn_with_shift\data\ava_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A167E-3CF6-4248-B3BD-A13789AA5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="AB_train" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -40,19 +33,356 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,30 +390,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,7 +748,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,26 +781,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,23 +816,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,56 +986,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.5</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1.4</v>
@@ -478,15 +1030,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="B3" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D3" s="1">
         <v>0.2</v>
@@ -508,15 +1060,15 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B4" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="1">
         <v>0.2</v>
@@ -538,15 +1090,15 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B5" s="1">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="1">
         <v>0.2</v>
@@ -568,48 +1120,48 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2">
         <v>5.5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>2.6</v>
       </c>
-      <c r="C6" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C7" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.4</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -628,18 +1180,18 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -658,18 +1210,18 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="C9" s="2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -688,18 +1240,18 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C10" s="2">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -718,45 +1270,45 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:26">
+      <c r="A11" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>1.4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.3</v>
       </c>
       <c r="D12" s="1">
         <v>0.2</v>
@@ -778,15 +1330,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B13" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C13" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D13" s="1">
         <v>0.2</v>
@@ -808,15 +1360,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B14" s="1">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C14" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="1">
         <v>0.2</v>
@@ -838,18 +1390,18 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C15" s="1">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D15" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -868,48 +1420,48 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="2">
         <v>6.1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C17" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D17" s="2">
         <v>1.4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.2</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -928,18 +1480,18 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="B18" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="C18" s="2">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -958,18 +1510,18 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C19" s="2">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D19" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -988,18 +1540,18 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C20" s="2">
         <v>4.2</v>
       </c>
       <c r="D20" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1018,45 +1570,45 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:26">
+      <c r="A21" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
         <v>4.7</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>3.2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>1.3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.5</v>
       </c>
       <c r="D22" s="1">
         <v>0.2</v>
@@ -1078,15 +1630,15 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B23" s="1">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="C23" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="1">
         <v>0.2</v>
@@ -1108,18 +1660,18 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C24" s="1">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D24" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1138,18 +1690,18 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B25" s="1">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C25" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D25" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1168,48 +1720,48 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="2">
         <v>5.8</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>2.6</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>1.2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1228,18 +1780,18 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="A28" s="2">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="C28" s="2">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D28" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1258,18 +1810,18 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="A29" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C29" s="2">
         <v>4.2</v>
       </c>
       <c r="D29" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1288,18 +1840,18 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="A30" s="2">
         <v>5.7</v>
       </c>
       <c r="B30" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>4.2</v>
       </c>
       <c r="D30" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1318,45 +1870,45 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="31" spans="1:26">
+      <c r="A31" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="B32" s="1">
         <v>3.1</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>1.5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.4</v>
       </c>
       <c r="D32" s="1">
         <v>0.2</v>
@@ -1378,18 +1930,18 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C33" s="1">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D33" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1408,18 +1960,18 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B34" s="1">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C34" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D34" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1438,18 +1990,18 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B35" s="1">
         <v>3.4</v>
       </c>
       <c r="C35" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D35" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1468,48 +2020,48 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
         <v>5</v>
       </c>
-      <c r="B36" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="C37" s="2">
         <v>3.3</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4.2</v>
-      </c>
       <c r="D37" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -1528,18 +2080,18 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26">
       <c r="A38" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="B38" s="2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="C38" s="2">
         <v>4.2</v>
       </c>
       <c r="D38" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -1558,18 +2110,18 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26">
       <c r="A39" s="2">
         <v>5.7</v>
       </c>
       <c r="B39" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2">
         <v>4.2</v>
       </c>
       <c r="D39" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -1588,15 +2140,15 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26">
       <c r="A40" s="2">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="B40" s="2">
         <v>2.9</v>
       </c>
       <c r="C40" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D40" s="2">
         <v>1.3</v>
@@ -1618,48 +2170,48 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+    <row r="41" spans="1:26">
+      <c r="A41" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1">
         <v>5</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>3.6</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>1.4</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>0.2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.4</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1678,18 +2230,18 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26">
       <c r="A43" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B43" s="1">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="C43" s="1">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D43" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1708,18 +2260,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B44" s="1">
         <v>3.4</v>
       </c>
       <c r="C44" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D44" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1738,15 +2290,15 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26">
       <c r="A45" s="1">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="C45" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D45" s="1">
         <v>0.2</v>
@@ -1768,48 +2320,48 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+    <row r="46" spans="1:26">
+      <c r="A46" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="2">
         <v>5.6</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>2.7</v>
-      </c>
-      <c r="C46" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3</v>
       </c>
       <c r="C47" s="2">
         <v>4.2</v>
       </c>
       <c r="D47" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
@@ -1828,18 +2380,18 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26">
       <c r="A48" s="2">
         <v>5.7</v>
       </c>
       <c r="B48" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2">
         <v>4.2</v>
       </c>
       <c r="D48" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1858,15 +2410,15 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:26">
       <c r="A49" s="2">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="B49" s="2">
         <v>2.9</v>
       </c>
       <c r="C49" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D49" s="2">
         <v>1.3</v>
@@ -1888,18 +2440,18 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:26">
       <c r="A50" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="B50" s="2">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C50" s="2">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D50" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -1918,48 +2470,48 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+    <row r="51" spans="1:26">
+      <c r="A51" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="1">
         <v>5.4</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>3.9</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>1.7</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>0.4</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.3</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -1978,18 +2530,18 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:26">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B53" s="1">
         <v>3.4</v>
       </c>
       <c r="C53" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D53" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2008,15 +2560,15 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:26">
       <c r="A54" s="1">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="C54" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D54" s="1">
         <v>0.2</v>
@@ -2038,18 +2590,18 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26">
       <c r="A55" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B55" s="1">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C55" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D55" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2068,48 +2620,48 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26">
+      <c r="A56" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="2">
         <v>5.7</v>
       </c>
       <c r="B57" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2">
         <v>4.2</v>
       </c>
       <c r="D57" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
@@ -2128,15 +2680,15 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26">
       <c r="A58" s="2">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="B58" s="2">
         <v>2.9</v>
       </c>
       <c r="C58" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D58" s="2">
         <v>1.3</v>
@@ -2158,18 +2710,18 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26">
       <c r="A59" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="B59" s="2">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D59" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
@@ -2188,18 +2740,18 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26">
       <c r="A60" s="2">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="B60" s="2">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C60" s="2">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -2218,51 +2770,63 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B61" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26">
+      <c r="A61" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="B62" s="1">
         <v>3.4</v>
       </c>
       <c r="C62" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C63" s="1">
         <v>1.5</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1.4</v>
       </c>
       <c r="D63" s="1">
         <v>0.2</v>
@@ -2272,69 +2836,69 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B64" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B65" s="1">
         <v>3.1</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C65" s="1">
         <v>1.5</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D65" s="1">
         <v>0.1</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B66" s="1">
         <v>3.5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C66" s="1">
         <v>1.4</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <v>0.2</v>
       </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
         <v>5.7</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E66" s="2">
-        <v>2</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
-        <v>6.2</v>
       </c>
       <c r="B67" s="2">
         <v>2.9</v>
       </c>
       <c r="C67" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D67" s="2">
         <v>1.3</v>
@@ -2344,87 +2908,87 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="B68" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="B69" s="2">
         <v>2.5</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>3</v>
       </c>
-      <c r="D68" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="D69" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>5.7</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>2.8</v>
       </c>
-      <c r="C69" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="C70" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="D70" s="2">
         <v>1.3</v>
       </c>
-      <c r="E69" s="2">
-        <v>2</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>5.5</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>2.6</v>
       </c>
-      <c r="C70" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C71" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="D71" s="2">
         <v>1.2</v>
       </c>
-      <c r="E70" s="2">
-        <v>2</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="1">
         <v>3.4</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>1.5</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.4</v>
       </c>
       <c r="D72" s="1">
         <v>0.2</v>
@@ -2434,48 +2998,48 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B73" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B74" s="1">
         <v>3.1</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <v>1.5</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>0.1</v>
       </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B75" s="1">
         <v>3.5</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B75" s="1">
-        <v>3</v>
       </c>
       <c r="C75" s="1">
         <v>1.4</v>
@@ -2488,156 +3052,156 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
         <v>6.2</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>2.9</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>4.3</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>1.3</v>
       </c>
-      <c r="E76" s="2">
-        <v>2</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="B78" s="2">
         <v>2.5</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>3</v>
       </c>
-      <c r="D77" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E77" s="2">
-        <v>2</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="D78" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>5.7</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>2.8</v>
       </c>
-      <c r="C78" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C79" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="D79" s="2">
         <v>1.3</v>
       </c>
-      <c r="E78" s="2">
-        <v>2</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>5.5</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>2.6</v>
       </c>
-      <c r="C79" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C80" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="D80" s="2">
         <v>1.2</v>
       </c>
-      <c r="E79" s="2">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>6.1</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>3</v>
       </c>
-      <c r="C80" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D80" s="2">
+      <c r="C81" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D81" s="2">
         <v>1.4</v>
       </c>
-      <c r="E80" s="2">
-        <v>2</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B81" s="1">
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="B82" s="1">
         <v>2.9</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C82" s="1">
         <v>1.4</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D82" s="1">
         <v>0.2</v>
       </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B82" s="1">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B83" s="1">
         <v>3.1</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C83" s="1">
         <v>1.5</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D83" s="1">
         <v>0.1</v>
       </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B83" s="1">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B84" s="1">
         <v>3.5</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B84" s="1">
-        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>1.4</v>
@@ -2650,15 +3214,15 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="B85" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D85" s="1">
         <v>0.2</v>
@@ -2668,138 +3232,138 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="B87" s="2">
         <v>2.5</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>3</v>
       </c>
-      <c r="D86" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E86" s="2">
-        <v>2</v>
-      </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
+      <c r="D87" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
         <v>5.7</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="2">
         <v>2.8</v>
       </c>
-      <c r="C87" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="C88" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="D88" s="2">
         <v>1.3</v>
       </c>
-      <c r="E87" s="2">
-        <v>2</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
         <v>5.5</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="2">
         <v>2.6</v>
       </c>
-      <c r="C88" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C89" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="D89" s="2">
         <v>1.2</v>
       </c>
-      <c r="E88" s="2">
-        <v>2</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
         <v>6.1</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>3</v>
       </c>
-      <c r="C89" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D89" s="2">
+      <c r="C90" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D90" s="2">
         <v>1.4</v>
       </c>
-      <c r="E89" s="2">
-        <v>2</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
         <v>5.8</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>2.6</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D91" s="2">
         <v>1.2</v>
       </c>
-      <c r="E90" s="2">
-        <v>2</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B92" s="1">
         <v>3.1</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C92" s="1">
         <v>1.5</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D92" s="1">
         <v>0.1</v>
       </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B92" s="1">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="B93" s="1">
         <v>3.5</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B93" s="1">
-        <v>3</v>
       </c>
       <c r="C93" s="1">
         <v>1.4</v>
@@ -2812,15 +3376,15 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="B94" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C94" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D94" s="1">
         <v>0.2</v>
@@ -2830,15 +3394,15 @@
       </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="B95" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C95" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D95" s="1">
         <v>0.2</v>
@@ -2848,99 +3412,117 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
         <v>5.7</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="2">
         <v>2.8</v>
       </c>
-      <c r="C96" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D96" s="2">
+      <c r="C97" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="D97" s="2">
         <v>1.3</v>
       </c>
-      <c r="E96" s="2">
-        <v>2</v>
-      </c>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
+      <c r="E97" s="2">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
         <v>5.5</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>2.6</v>
       </c>
-      <c r="C97" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="C98" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="D98" s="2">
         <v>1.2</v>
       </c>
-      <c r="E97" s="2">
-        <v>2</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
+      <c r="E98" s="2">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
         <v>6.1</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B99" s="2">
         <v>3</v>
       </c>
-      <c r="C98" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D98" s="2">
+      <c r="C99" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="D99" s="2">
         <v>1.4</v>
       </c>
-      <c r="E98" s="2">
-        <v>2</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
         <v>5.8</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>2.6</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>4</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D100" s="2">
         <v>1.2</v>
       </c>
-      <c r="E99" s="2">
-        <v>2</v>
-      </c>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
         <v>5</v>
       </c>
-      <c r="B100" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B101" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="C101" s="2">
         <v>3.3</v>
       </c>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="F100" s="2"/>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2</v>
+      </c>
+      <c r="F101" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>